--- a/biology/Médecine/Recipharm/Recipharm.xlsx
+++ b/biology/Médecine/Recipharm/Recipharm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Recipharm  est une compagnie suédoise intervenant dans le domaine de l'industrie pharmaceutique fondée en 1995.
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La compagnie est fondée en 1995[2] sous le nom de « Recip » par Lars Backsell et Thomas Eldered qui rachètent une usine de fabrication de comprimés de l'entreprise Pharmacia[3]. Elle emploie alors140 personnes pour un chiffre d'affaires de 220 millions de couronnes suédoises. La marque Recipharm est créée en 2007[4].
-En juillet 2007, Recipharm reprend à Monts (Indre-et-Loire, France) l'ancien laboratoire Roger Bellon qui avait plusieurs fois changé de propriétaire[5]. Les rachats d'entreprise se poursuivent au fil des ans[4].
-En 2016, le chiffre d'affaires du groupe s'élève à 360,5 M € et il emploie près de 2 500 personnes en Europe, dont plus de 700 en France sur quatre sites[2].  Le titre est introduit en avril 2014 à la Bourse de Stockholm[5].
-En 2018, Recipharm est présent dans dix pays du monde et emploie près de 7 000 personnes sur 27 sites différents[6]. Elle produit plus de 600 spécialités pharmaceutiques pour le compte de plusieurs groupes pharmaceutiques[7].
-En novembre 2019, Recipharm annonce l'acquisition de Consort Medical, une entreprise britannique pour 505 millions de livres[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La compagnie est fondée en 1995 sous le nom de « Recip » par Lars Backsell et Thomas Eldered qui rachètent une usine de fabrication de comprimés de l'entreprise Pharmacia. Elle emploie alors140 personnes pour un chiffre d'affaires de 220 millions de couronnes suédoises. La marque Recipharm est créée en 2007.
+En juillet 2007, Recipharm reprend à Monts (Indre-et-Loire, France) l'ancien laboratoire Roger Bellon qui avait plusieurs fois changé de propriétaire. Les rachats d'entreprise se poursuivent au fil des ans.
+En 2016, le chiffre d'affaires du groupe s'élève à 360,5 M € et il emploie près de 2 500 personnes en Europe, dont plus de 700 en France sur quatre sites.  Le titre est introduit en avril 2014 à la Bourse de Stockholm.
+En 2018, Recipharm est présent dans dix pays du monde et emploie près de 7 000 personnes sur 27 sites différents. Elle produit plus de 600 spécialités pharmaceutiques pour le compte de plusieurs groupes pharmaceutiques.
+En novembre 2019, Recipharm annonce l'acquisition de Consort Medical, une entreprise britannique pour 505 millions de livres.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Recipharm Monts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société française Recipharm Monts emploie 233 personnes en 2018 à Monts (Indre-et-Loire), et réalise un chiffre d'affaires de 30 millions d'euros[9]. Le 22 avril 2021, le site commence l'assemblage et le conditionnement du vaccin mRNA-1273 contre la COVID-19, co-développé par Moderna Therapeutics[10]. Toutefois, le site devient totalement dépendant au vaccin Moderna dont la production baisse fortement après la pandémie Covid-19. La direction annonce en janvier 2024 la fermeture du site au plus tard au cours du 1er semestre 2025, ainsi que la recherche de repreneurs éventuels[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société française Recipharm Monts emploie 233 personnes en 2018 à Monts (Indre-et-Loire), et réalise un chiffre d'affaires de 30 millions d'euros. Le 22 avril 2021, le site commence l'assemblage et le conditionnement du vaccin mRNA-1273 contre la COVID-19, co-développé par Moderna Therapeutics. Toutefois, le site devient totalement dépendant au vaccin Moderna dont la production baisse fortement après la pandémie Covid-19. La direction annonce en janvier 2024 la fermeture du site au plus tard au cours du 1er semestre 2025, ainsi que la recherche de repreneurs éventuels.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 15 octobre 2019[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 15 octobre 2019.
 </t>
         </is>
       </c>
